--- a/biology/Zoologie/Cypridodella/Cypridodella.xlsx
+++ b/biology/Zoologie/Cypridodella/Cypridodella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypridodella est un genre éteint de conodontes. Les différentes espèces datent du  Trias.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cypridodella a été créé en 1968 par le géologue et paléontologue Loren Cameron Mosher (d) (1938-).
 </t>
@@ -542,7 +556,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">† Cypridodella bidentata
 † Cypridodella elongata
@@ -554,7 +570,7 @@
 † Cypridodella spengleri
 † Cypridodella unialata
 † Cypridodella venusta
-Selon Paleobiology Database                   (14 juin 2022)[1] et GBIF       (14 juin 2022)[2] ce genre n'est représenté par aucune espèce.
+Selon Paleobiology Database                   (14 juin 2022) et GBIF       (14 juin 2022) ce genre n'est représenté par aucune espèce.
 </t>
         </is>
       </c>
@@ -583,7 +599,9 @@
           <t>Stratigraphie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Alaunien, aussi connu sous le nom de "Norien moyen", est un sous-âge du Trias supérieur. Il commence avec la première apparition de Cypridodella multidentata. Le sous-étage se termine avec la première apparition de Cypridodella bidentata.
 </t>
@@ -614,7 +632,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Mosher L.C., 1968. Triassic conodonts from western North America and Europe and their correlation. Journal of Paleontology, July 1968, Vol. 42, No. 4, pages 895-946 (lire en ligne sur JSTOR).</t>
         </is>
